--- a/output/ETHUSDT_1_2019_12_2025_15m_strategy.xlsx
+++ b/output/ETHUSDT_1_2019_12_2025_15m_strategy.xlsx
@@ -614,31 +614,27 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>1012.063039107595</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="n">
-        <v>1.206303910759459</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>5.493150684931569</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.2717391304347895</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0.01041666666666667</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -646,42 +642,30 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.206303910759459</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.206303910759459</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.206303910759459</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" s="3" t="n">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>12.06303910759459</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18.5757984589217</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1507.459758640305</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5.423138976783835</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51.54692716404828</v>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -714,10 +698,10 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>982.6444753042266</v>
+        <v>988.1917282413443</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.73555246957734</v>
+        <v>-1.180827175865568</v>
       </c>
       <c r="G3" t="n">
         <v>-12.67202978525368</v>
@@ -729,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.504604872152604</v>
+        <v>1.983573339494583</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>17.66666666666667</v>
+        <v>10.39583333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -747,43 +731,43 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.42857142857143</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.497874637338919</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.014469959106628</v>
+        <v>-1.014469959106631</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8322474023824404</v>
+        <v>0.8115212776868089</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.3838522052441291</v>
+        <v>-0.3998451249670859</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.1477272727199074</v>
+        <v>0.09606481480324074</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5886978746429642</v>
+        <v>0.6725745943595669</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.239680335412386</v>
+        <v>-0.9840226465546396</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.542307300251237</v>
+        <v>-1.847879017559141</v>
       </c>
       <c r="Z3" t="n">
-        <v>-7.657671515107699</v>
+        <v>-6.78174826323263</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8345981249373046</v>
+        <v>0.8385186677565779</v>
       </c>
       <c r="AB3" t="n">
-        <v>-3.712880294972573</v>
+        <v>-2.729289530469302</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1020,10 +1004,10 @@
         <v>1000</v>
       </c>
       <c r="E6" t="n">
-        <v>1016.077193273572</v>
+        <v>1024.174127165402</v>
       </c>
       <c r="F6" t="n">
-        <v>1.607719327357245</v>
+        <v>2.417412716540162</v>
       </c>
       <c r="G6" t="n">
         <v>-39.70862736171178</v>
@@ -1035,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.074132653997206</v>
+        <v>5.074132653997194</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>11.05208333333333</v>
+        <v>7.40625</v>
       </c>
       <c r="L6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1053,43 +1037,43 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>28.57142857142857</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.826862539349419</v>
+        <v>4.826862539349413</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.14289821736631</v>
+        <v>-1.1428982173663</v>
       </c>
       <c r="S6" t="n">
-        <v>2.103468127054116</v>
+        <v>2.103468127054114</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.6652832823919412</v>
+        <v>-0.6513612287621855</v>
       </c>
       <c r="U6" s="3" t="n">
         <v>0.2213541666666667</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0.07708333333333334</v>
+        <v>0.08449074074074074</v>
       </c>
       <c r="W6" t="n">
-        <v>1.235483219666146</v>
+        <v>1.398044031294063</v>
       </c>
       <c r="X6" t="n">
-        <v>1.148370948112309</v>
+        <v>1.859548243492441</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.214191129497977</v>
+        <v>1.796838558388106</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.218954399172576</v>
+        <v>6.643917020085678</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.078266318837283</v>
+        <v>1.118596815071109</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.797260474842415</v>
+        <v>2.702454828545211</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1122,10 +1106,10 @@
         <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>982.4178473911292</v>
+        <v>1009.394326140175</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.758215260887084</v>
+        <v>0.9394326140174939</v>
       </c>
       <c r="G7" t="n">
         <v>62.24135326989861</v>
@@ -1137,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.708465519364074</v>
+        <v>6.146817467891424</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>25.84375</v>
+        <v>21.05208333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1155,43 +1139,43 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>35.29411764705883</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.255430299697543</v>
+        <v>3.255430299697538</v>
       </c>
       <c r="R7" t="n">
         <v>-1.658270361041119</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57599208163519</v>
+        <v>1.837416147312873</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.006178370079095</v>
+        <v>-1.013390932528378</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.09375</v>
+        <v>0.09583333332175925</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.1060606060532407</v>
+        <v>0.1106770833333333</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8336575469344156</v>
+        <v>1.119412653290888</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.034244271110048</v>
+        <v>0.7226404723211486</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.223534796557885</v>
+        <v>0.8344203764644116</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2.296959439034404</v>
+        <v>2.031041761668635</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9262838791475038</v>
+        <v>1.06161282064425</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.822724443554968</v>
+        <v>1.341048596601373</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1224,10 +1208,10 @@
         <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>983.73517922758</v>
+        <v>989.75077607125</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.626482077241997</v>
+        <v>-1.024922392874998</v>
       </c>
       <c r="G8" t="n">
         <v>16.46957023363154</v>
@@ -1239,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.602761720654689</v>
+        <v>4.019402156408248</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>25.36458333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1257,43 +1241,43 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>35.71428571428572</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.667611489040053</v>
+        <v>1.667611489040056</v>
       </c>
       <c r="R8" t="n">
         <v>-1.639904338913568</v>
       </c>
       <c r="S8" t="n">
-        <v>1.100691305786481</v>
+        <v>1.10069130578648</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.7859677482812225</v>
+        <v>-0.8082400855105665</v>
       </c>
       <c r="U8" s="3" t="n">
         <v>0.1645833333333333</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0.09143518518518519</v>
+        <v>0.09765625</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7661090615711196</v>
+        <v>0.8393473891291752</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.161772912315711</v>
+        <v>-0.7884018406730764</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.450890856456625</v>
+        <v>-0.8911764369984179</v>
       </c>
       <c r="Z8" t="n">
-        <v>-3.928420915032919</v>
+        <v>-2.92995723325078</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9098542097659738</v>
+        <v>0.9428539753121307</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.985359396715285</v>
+        <v>-1.223856729707991</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1428,10 +1412,10 @@
         <v>1000</v>
       </c>
       <c r="E10" t="n">
-        <v>986.2298527331427</v>
+        <v>972.3090834031934</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.377014726685729</v>
+        <v>-2.769091659680657</v>
       </c>
       <c r="G10" t="n">
         <v>49.33908941207803</v>
@@ -1443,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.712959183048676</v>
+        <v>4.086179077227461</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>27.01041666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1461,43 +1445,43 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>30.76923076923077</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.431722645357301</v>
+        <v>0.703168546070409</v>
       </c>
       <c r="R10" t="n">
         <v>-1.313578062804076</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6757830005480105</v>
+        <v>0.423803118944912</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.4513265732113723</v>
+        <v>-0.4513265732113692</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.2013888888773148</v>
       </c>
       <c r="V10" s="3" t="n">
         <v>0.1956018518518519</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6588167697724208</v>
+        <v>0.3078610400656286</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.059242097450561</v>
+        <v>-2.307576383067214</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.607687946818321</v>
+        <v>-3.652310356149405</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5.720288001031855</v>
+        <v>-7.08057677944454</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.9181420264938042</v>
+        <v>0.8165798518093452</v>
       </c>
       <c r="AB10" t="n">
-        <v>-2.10344474461744</v>
+        <v>-4.525668784220641</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1530,10 +1514,10 @@
         <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>975.0983162890018</v>
+        <v>1013.627518624352</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.490168371099821</v>
+        <v>1.362751862435221</v>
       </c>
       <c r="G11" t="n">
         <v>24.05316191799809</v>
@@ -1545,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.363727021084788</v>
+        <v>5.404721420367899</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>25.09375</v>
+        <v>10.61458333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1563,43 +1547,43 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.295931588494434</v>
+        <v>3.17140192099227</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.140389439114589</v>
+        <v>-1.140389439114601</v>
       </c>
       <c r="S11" t="n">
-        <v>1.468004555913971</v>
+        <v>1.890382440084694</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.6760966139856708</v>
+        <v>-0.6098170101206513</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>0.046875</v>
+        <v>0.09375</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>0.6106770833333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5315422612916926</v>
+        <v>1.219925305492938</v>
       </c>
       <c r="X11" t="n">
-        <v>-2.490168371099833</v>
+        <v>0.973394187453704</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.8935693933392445</v>
+        <v>1.267530241002771</v>
       </c>
       <c r="Z11" t="n">
-        <v>-2.820764684493461</v>
+        <v>3.311005566315063</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9677307808271631</v>
+        <v>1.118214517965133</v>
       </c>
       <c r="AB11" t="n">
-        <v>-1.251135570232121</v>
+        <v>2.363417231706992</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1632,10 +1616,10 @@
         <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>1019.819080687552</v>
+        <v>1043.189911071522</v>
       </c>
       <c r="F12" t="n">
-        <v>1.981908068755206</v>
+        <v>4.318991107152158</v>
       </c>
       <c r="G12" t="n">
         <v>-17.08360307037849</v>
@@ -1647,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.426285449050455</v>
+        <v>3.389304286021504</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>11.3125</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1665,43 +1649,43 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.323360319136456</v>
+        <v>3.323360319136474</v>
       </c>
       <c r="R12" t="n">
         <v>-1.786949504265622</v>
       </c>
       <c r="S12" t="n">
-        <v>1.966546255368699</v>
+        <v>1.966546255368709</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.9635025958412374</v>
+        <v>-0.909172580217503</v>
       </c>
       <c r="U12" s="3" t="n">
         <v>0.2729166666666666</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>0.1315104166666667</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="W12" t="n">
-        <v>1.259570484305776</v>
+        <v>1.790526598262927</v>
       </c>
       <c r="X12" t="n">
-        <v>1.524544668273236</v>
+        <v>3.926355551956507</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.37518334880427</v>
+        <v>2.977946042229366</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.327539390993165</v>
+        <v>20.72178245650302</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.071834338406208</v>
+        <v>1.171346031348632</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.090826371309519</v>
+        <v>4.745578636563695</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1836,10 +1820,10 @@
         <v>1000</v>
       </c>
       <c r="E14" t="n">
-        <v>978.750509309531</v>
+        <v>950.0781127497455</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.124949069046898</v>
+        <v>-4.992188725025449</v>
       </c>
       <c r="G14" t="n">
         <v>51.83827299764155</v>
@@ -1851,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.619437060789811</v>
+        <v>5.111935877923776</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>19.78125</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1869,43 +1853,39 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.017898862736767</v>
+        <v>-0.425089113733486</v>
       </c>
       <c r="R14" t="n">
         <v>-1.528059499661928</v>
       </c>
-      <c r="S14" t="n">
-        <v>3.017898862736767</v>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
         <v>-0.8491440037995701</v>
       </c>
-      <c r="U14" s="3" t="n">
-        <v>0.21875</v>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" s="3" t="n">
         <v>0.09895833333333333</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5743452048608068</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.035641527209854</v>
+        <v>-8.320314541709081</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.471567883662495</v>
+        <v>-7.580516624357356</v>
       </c>
       <c r="Z14" t="n">
-        <v>-4.213955563565477</v>
+        <v>-9.291616469515079</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8210393009375808</v>
+        <v>0.4864962979883699</v>
       </c>
       <c r="AB14" t="n">
-        <v>-3.473212918027497</v>
+        <v>-8.856861312540415</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1938,10 +1918,10 @@
         <v>1000</v>
       </c>
       <c r="E15" t="n">
-        <v>1019.407557444737</v>
+        <v>983.4180134462027</v>
       </c>
       <c r="F15" t="n">
-        <v>1.940755744473745</v>
+        <v>-1.658198655379727</v>
       </c>
       <c r="G15" t="n">
         <v>23.36195357644282</v>
@@ -1953,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.243453404124081</v>
+        <v>4.507106556877137</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>24.4375</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1971,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.41176470588236</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="Q15" t="n">
         <v>3.428189935742317</v>
@@ -1980,34 +1960,34 @@
         <v>-1.576949447315189</v>
       </c>
       <c r="S15" t="n">
-        <v>2.010763558573812</v>
+        <v>1.841568948659955</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.6643710543220507</v>
+        <v>-0.6450777955029768</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>0.06770833333333333</v>
+        <v>0.0681818181712963</v>
       </c>
       <c r="W15" t="n">
-        <v>1.242921592062589</v>
+        <v>0.7659637719022496</v>
       </c>
       <c r="X15" t="n">
-        <v>1.141621026161028</v>
+        <v>-1.184427610985519</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.356521434510206</v>
+        <v>-1.180481988239233</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.206479712901229</v>
+        <v>-4.082937388464953</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.087835620056738</v>
+        <v>0.9265761351408145</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.16263573638369</v>
+        <v>-1.70723381265082</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -2040,10 +2020,10 @@
         <v>1000</v>
       </c>
       <c r="E16" t="n">
-        <v>1086.679591449997</v>
+        <v>1067.973621344294</v>
       </c>
       <c r="F16" t="n">
-        <v>8.667959144999667</v>
+        <v>6.797362134429386</v>
       </c>
       <c r="G16" t="n">
         <v>88.88661090153667</v>
@@ -2055,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.927431806484805</v>
+        <v>6.927431806484817</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>17.96875</v>
       </c>
       <c r="L16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -2073,43 +2053,43 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>41.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="n">
         <v>8.376116125179395</v>
       </c>
       <c r="R16" t="n">
-        <v>-3.450886746847591</v>
+        <v>-3.450886746847601</v>
       </c>
       <c r="S16" t="n">
-        <v>3.719452131555597</v>
+        <v>3.668673803610446</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.382286658675534</v>
+        <v>-1.264487556202408</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>0.1479166666666667</v>
+        <v>0.1640625</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>0.08184523809027779</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="W16" t="n">
-        <v>1.827062389905912</v>
+        <v>1.835927473494996</v>
       </c>
       <c r="X16" t="n">
-        <v>7.223299287499723</v>
+        <v>6.797362134429388</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.89995761702518</v>
+        <v>2.440745460432302</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.23903248693493</v>
+        <v>17.68596644052179</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.228969033626433</v>
+        <v>1.198821080917936</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.747823067987973</v>
+        <v>3.913533640623682</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2142,10 +2122,10 @@
         <v>1000</v>
       </c>
       <c r="E17" t="n">
-        <v>960.1292086665717</v>
+        <v>931.1133815094099</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.987079133342831</v>
+        <v>-6.888661849059008</v>
       </c>
       <c r="G17" t="n">
         <v>13.04503022449113</v>
@@ -2157,61 +2137,61 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.278714934062474</v>
+        <v>9.278714934062489</v>
       </c>
       <c r="K17" s="3" t="n">
         <v>10.8125</v>
       </c>
       <c r="L17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>4.899084369750426</v>
+        <v>4.751030353668057</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.116250687980096</v>
+        <v>1.687620025903269</v>
       </c>
       <c r="R17" t="n">
-        <v>-2.117021145580608</v>
+        <v>-2.117021145580611</v>
       </c>
       <c r="S17" t="n">
-        <v>1.992225354760502</v>
+        <v>1.430212688150711</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.156526132834054</v>
+        <v>-1.156526132834056</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>0.125</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="V17" s="3" t="n">
         <v>0.1145833333333333</v>
       </c>
       <c r="W17" t="n">
-        <v>0.5752865627209364</v>
+        <v>0.2796606490172496</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.730822975264896</v>
+        <v>-6.694331713114376</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.017888365115468</v>
+        <v>-4.124550435208152</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4.55825122251744</v>
+        <v>-6.66931683179516</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.885422048808886</v>
+        <v>0.7551341425471736</v>
       </c>
       <c r="AB17" t="n">
-        <v>-2.842795592078507</v>
+        <v>-5.505989874750274</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2244,31 +2224,27 @@
         <v>1000</v>
       </c>
       <c r="E18" t="n">
-        <v>1049.673287112529</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="n">
-        <v>4.967328711252878</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>30.10481502817106</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.4061629991228437</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>0.01041666666666667</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2276,42 +2252,30 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.409564743240218</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.506402209389909</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.457983476315064</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" s="3" t="n">
-        <v>0.078125</v>
-      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="X18" t="n">
-        <v>24.83664355626439</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.166804819317694</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>197.7796509951842</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>7.365741999561595</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>35.79633394463814</v>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -2548,10 +2512,10 @@
         <v>1000</v>
       </c>
       <c r="E21" t="n">
-        <v>963.4263926860706</v>
+        <v>981.3874685962002</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.657360731392942</v>
+        <v>-1.861253140379983</v>
       </c>
       <c r="G21" t="n">
         <v>-21.43351407556047</v>
@@ -2563,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.853740060656984</v>
+        <v>4.817647089781469</v>
       </c>
       <c r="K21" s="3" t="n">
         <v>20.07291666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2581,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
         <v>1.825664705070464</v>
@@ -2593,31 +2557,31 @@
         <v>1.825664705070464</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.10022560332879</v>
+        <v>-1.220903137106229</v>
       </c>
       <c r="U21" s="3" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>0.1375</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3248267080260688</v>
+        <v>0.4859572516988463</v>
       </c>
       <c r="X21" t="n">
-        <v>-6.095601218988236</v>
+        <v>-4.653132850949959</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.467547777916383</v>
+        <v>-2.149973016986322</v>
       </c>
       <c r="Z21" t="n">
-        <v>-7.710279925985021</v>
+        <v>-4.369817413687423</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.7537765943656347</v>
+        <v>0.8178106316170457</v>
       </c>
       <c r="AB21" t="n">
-        <v>-4.655569073931038</v>
+        <v>-2.854105096126478</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -2954,10 +2918,10 @@
         <v>1000</v>
       </c>
       <c r="E25" t="n">
-        <v>991.4176085489311</v>
+        <v>972.1953853914729</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8582391451068929</v>
+        <v>-2.780461460852711</v>
       </c>
       <c r="G25" t="n">
         <v>45.22925604686016</v>
@@ -2975,10 +2939,10 @@
         <v>18.41666666666667</v>
       </c>
       <c r="L25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -2987,43 +2951,43 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>22.22222222222222</v>
+        <v>12.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.977197531103071</v>
+        <v>1.365895669937445</v>
       </c>
       <c r="R25" t="n">
         <v>-1.236423487188572</v>
       </c>
       <c r="S25" t="n">
-        <v>1.671546600520258</v>
+        <v>1.365895669937445</v>
       </c>
       <c r="T25" t="n">
         <v>-0.5940383592424688</v>
       </c>
       <c r="U25" s="3" t="n">
-        <v>0.2239583333333333</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="V25" s="3" t="n">
         <v>0.07738095237268519</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7901864771928533</v>
+        <v>0.3202612378414018</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.9535990501187701</v>
+        <v>-3.47557682606589</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.8453156782945166</v>
+        <v>-3.390707961603688</v>
       </c>
       <c r="Z25" t="n">
-        <v>-2.325982951897401</v>
+        <v>-6.785346592516692</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9335726027896009</v>
+        <v>0.7299298808618672</v>
       </c>
       <c r="AB25" t="n">
-        <v>-1.12004220834858</v>
+        <v>-4.006291129706167</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -3056,10 +3020,10 @@
         <v>1000</v>
       </c>
       <c r="E26" t="n">
-        <v>961.4290409829365</v>
+        <v>956.8685072294688</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.85709590170635</v>
+        <v>-4.313149277053117</v>
       </c>
       <c r="G26" t="n">
         <v>3.763007253933814</v>
@@ -3077,10 +3041,10 @@
         <v>23.95833333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3089,43 +3053,43 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q26" t="n">
         <v>1.290142671236464</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.28650329882119</v>
+        <v>-1.286503298821188</v>
       </c>
       <c r="S26" t="n">
-        <v>1.081317898248111</v>
+        <v>1.094918175541603</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.5944240980529245</v>
+        <v>-0.5965096565883741</v>
       </c>
       <c r="U26" s="3" t="n">
-        <v>0.09375</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="V26" s="3" t="n">
-        <v>0.07899305555555555</v>
+        <v>0.08049242423611111</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4484185598405327</v>
+        <v>0.329516143110308</v>
       </c>
       <c r="X26" t="n">
-        <v>-2.571397267804233</v>
+        <v>-3.317807136194705</v>
       </c>
       <c r="Y26" t="n">
-        <v>-3.772909063868106</v>
+        <v>-4.463611084648943</v>
       </c>
       <c r="Z26" t="n">
-        <v>-9.026579343287382</v>
+        <v>-9.845168988479706</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.7742604223677322</v>
+        <v>0.7257420737204651</v>
       </c>
       <c r="AB26" t="n">
-        <v>-4.810467582185558</v>
+        <v>-5.5735420348583</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -3158,10 +3122,10 @@
         <v>1000</v>
       </c>
       <c r="E27" t="n">
-        <v>1019.102765473864</v>
+        <v>999.5597287269126</v>
       </c>
       <c r="F27" t="n">
-        <v>1.910276547386411</v>
+        <v>-0.04402712730874328</v>
       </c>
       <c r="G27" t="n">
         <v>-20.16699206401895</v>
@@ -3176,13 +3140,13 @@
         <v>4.874013359756016</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>13.15625</v>
+        <v>25.04166666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3191,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>45.45454545454545</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="n">
         <v>2.274649663885056</v>
@@ -3200,34 +3164,34 @@
         <v>-2.39514710342736</v>
       </c>
       <c r="S27" t="n">
-        <v>1.298324038821781</v>
+        <v>1.134113929165042</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.7510629746538627</v>
+        <v>-0.7510629746538625</v>
       </c>
       <c r="U27" s="3" t="n">
-        <v>0.1</v>
+        <v>0.1171875</v>
       </c>
       <c r="V27" s="3" t="n">
         <v>0.1475694444444444</v>
       </c>
       <c r="W27" t="n">
-        <v>1.418687623010436</v>
+        <v>0.9902615765603371</v>
       </c>
       <c r="X27" t="n">
-        <v>1.736615043078556</v>
+        <v>-0.04402712730874292</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.425410010985115</v>
+        <v>0.05085688293626762</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.309434903991752</v>
+        <v>-0.1095942031222451</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.099379031737451</v>
+        <v>1.003429543955779</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.061210843195969</v>
+        <v>0.07113183802739875</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3260,10 +3224,10 @@
         <v>1000</v>
       </c>
       <c r="E28" t="n">
-        <v>1025.070792433373</v>
+        <v>1008.682051870004</v>
       </c>
       <c r="F28" t="n">
-        <v>2.507079243337307</v>
+        <v>0.8682051870004328</v>
       </c>
       <c r="G28" t="n">
         <v>-30.05580387376396</v>
@@ -3275,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.28001894963047</v>
+        <v>1.251656510959924</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>4.552083333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3293,43 +3257,43 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.047647881907244</v>
+        <v>2.718043881672307</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.380798274002167</v>
+        <v>-1.251656510959924</v>
       </c>
       <c r="S28" t="n">
-        <v>2.882845881789776</v>
+        <v>2.718043881672307</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.06288321498481</v>
+        <v>-0.9039256854761307</v>
       </c>
       <c r="U28" s="3" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="V28" s="3" t="n">
         <v>0.0625</v>
       </c>
       <c r="W28" t="n">
-        <v>1.781361242327149</v>
+        <v>1.478134443500424</v>
       </c>
       <c r="X28" t="n">
-        <v>5.014158486674615</v>
+        <v>2.894017290001441</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.739900232036162</v>
+        <v>1.64620781323711</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.41342076228788</v>
+        <v>8.857481590439525</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.298265529671296</v>
+        <v>1.352484672487895</v>
       </c>
       <c r="AB28" t="n">
-        <v>4.362458464125703</v>
+        <v>2.916601244995335</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -4278,10 +4242,10 @@
         <v>1000</v>
       </c>
       <c r="E38" t="n">
-        <v>970.5502775195262</v>
+        <v>990.3621834235619</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.944972248047384</v>
+        <v>-0.9637816576438127</v>
       </c>
       <c r="G38" t="n">
         <v>-22.85116769854675</v>
@@ -4293,16 +4257,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.619866375425213</v>
+        <v>7.399377330727648</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>18.01041666666667</v>
+        <v>17.79166666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4311,43 +4275,43 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>26.08695652173913</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="Q38" t="n">
         <v>2.195241599215108</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.706366935515479</v>
+        <v>-1.706366935515475</v>
       </c>
       <c r="S38" t="n">
-        <v>1.433489721898514</v>
+        <v>1.433489721898511</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.6740712392697227</v>
+        <v>-0.6299625711295379</v>
       </c>
       <c r="U38" s="3" t="n">
         <v>0.1875</v>
       </c>
       <c r="V38" s="3" t="n">
-        <v>0.1256127450925926</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="W38" t="n">
-        <v>0.7427616059345248</v>
+        <v>0.8991016259221111</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.280422716542331</v>
+        <v>-0.4589436464970653</v>
       </c>
       <c r="Y38" t="n">
-        <v>-2.092260818542119</v>
+        <v>-0.6998260562422941</v>
       </c>
       <c r="Z38" t="n">
-        <v>-3.636498594862153</v>
+        <v>-1.550362684762949</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.9084441422378049</v>
+        <v>0.9658239307663787</v>
       </c>
       <c r="AB38" t="n">
-        <v>-2.991617035637184</v>
+        <v>-1.009760468438988</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -4482,10 +4446,10 @@
         <v>1000</v>
       </c>
       <c r="E40" t="n">
-        <v>997.5414286489656</v>
+        <v>999.4995145436144</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2458571351034379</v>
+        <v>-0.05004854563856043</v>
       </c>
       <c r="G40" t="n">
         <v>31.05391397543489</v>
@@ -4497,16 +4461,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.780539588919154</v>
+        <v>3.190051804724736</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>14.90625</v>
       </c>
       <c r="L40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -4515,43 +4479,43 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>41.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.471503484653346</v>
+        <v>1.471503484653342</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.9325238597484133</v>
+        <v>-0.9325238597484048</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8772453514254045</v>
+        <v>0.9702412451681439</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.6561675953701558</v>
+        <v>-0.6492549465219668</v>
       </c>
       <c r="U40" s="3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2578125</v>
       </c>
       <c r="V40" s="3" t="n">
-        <v>0.1294642857060185</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9466092753229015</v>
+        <v>0.9871666417961338</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.2048809459195309</v>
+        <v>-0.05004854563855998</v>
       </c>
       <c r="Y40" t="n">
-        <v>-0.1370138753130071</v>
+        <v>0.02744265429888215</v>
       </c>
       <c r="Z40" t="n">
-        <v>-0.7801881004361881</v>
+        <v>-0.1902837949462332</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.9911443491351685</v>
+        <v>1.001838637311093</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.1988904215117157</v>
+        <v>0.03977437069455577</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -4584,10 +4548,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>1029.349233554467</v>
+        <v>1018.728691825837</v>
       </c>
       <c r="F41" t="n">
-        <v>2.934923355446756</v>
+        <v>1.872869182583691</v>
       </c>
       <c r="G41" t="n">
         <v>2.978962379635841</v>
@@ -4599,16 +4563,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2637464780550208</v>
+        <v>0.2395766071848804</v>
       </c>
       <c r="K41" s="3" t="n">
         <v>3.166666666666667</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4620,13 +4584,13 @@
         <v>100</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.165668419932494</v>
+        <v>1.165668419932503</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3395675043833895</v>
+        <v>0.6990521327014222</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7262176427890393</v>
+        <v>0.9323602763169627</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" s="3" t="n">
@@ -4639,19 +4603,19 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>7.337308388616918</v>
+        <v>9.364345912918452</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.729476241418784</v>
+        <v>6.23578211499018</v>
       </c>
       <c r="Z41" t="n">
-        <v>181.3505034730546</v>
+        <v>118.9528884837768</v>
       </c>
       <c r="AA41" t="n">
-        <v>4.602986408231625</v>
+        <v>7.010613374460153</v>
       </c>
       <c r="AB41" t="n">
-        <v>29.71404328119947</v>
+        <v>41.2428654525861</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -4786,10 +4750,10 @@
         <v>1000</v>
       </c>
       <c r="E43" t="n">
-        <v>937.6505186376347</v>
+        <v>938.2995097813564</v>
       </c>
       <c r="F43" t="n">
-        <v>-6.234948136236528</v>
+        <v>-6.170049021864361</v>
       </c>
       <c r="G43" t="n">
         <v>4.380606672076315</v>
@@ -4801,61 +4765,57 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.564096583280911</v>
+        <v>6.170049021864361</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>14.30208333333333</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="L43" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.674718962060524</v>
+        <v>-1.675878112248142</v>
       </c>
       <c r="P43" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.294250731967003</v>
+        <v>-0.1155750941072914</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.388250933516345</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.294250731967003</v>
-      </c>
+        <v>-1.388250933516341</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>-0.4699479670142414</v>
-      </c>
-      <c r="U43" s="3" t="n">
-        <v>0.02083333333333333</v>
-      </c>
+        <v>-0.4744495447706386</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" s="3" t="n">
-        <v>0.1015625</v>
+        <v>0.1121794871759259</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1732223639931086</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-3.569103670606169</v>
+        <v>-4.617277854338104</v>
       </c>
       <c r="Y43" t="n">
-        <v>-7.975941486301076</v>
+        <v>-9.39343320770192</v>
       </c>
       <c r="Z43" t="n">
-        <v>-8.457137253095212</v>
+        <v>-8.934208459874929</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.5689889196068992</v>
+        <v>0.5042905070281557</v>
       </c>
       <c r="AB43" t="n">
-        <v>-10.54120263549228</v>
+        <v>-11.07982487010637</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -4888,10 +4848,10 @@
         <v>1000</v>
       </c>
       <c r="E44" t="n">
-        <v>977.5744070591317</v>
+        <v>988.2005172653498</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.242559294086834</v>
+        <v>-1.179948273465016</v>
       </c>
       <c r="G44" t="n">
         <v>1.131284321655279</v>
@@ -4903,16 +4863,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.730373506026095</v>
+        <v>1.673064964211818</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>20.625</v>
       </c>
       <c r="L44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4924,36 +4884,36 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.01762891141471978</v>
+        <v>-0.2813862202077644</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.5757724991355566</v>
+        <v>-0.3283991228070126</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>-0.2830073764978145</v>
+        <v>-0.2962996183812643</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" s="3" t="n">
-        <v>0.1575520833333333</v>
+        <v>0.1822916666666667</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-2.803199117608543</v>
+        <v>-2.949870683662539</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.422065051786068</v>
+        <v>-4.815381319587869</v>
       </c>
       <c r="Z44" t="n">
-        <v>-8.829447147265485</v>
+        <v>-8.034794043377262</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.6324089412421967</v>
+        <v>0.6506468396588416</v>
       </c>
       <c r="AB44" t="n">
-        <v>-8.523202670237648</v>
+        <v>-6.155377797823354</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -5088,10 +5048,10 @@
         <v>1000</v>
       </c>
       <c r="E46" t="n">
-        <v>990.0013464955886</v>
+        <v>986.2162401385733</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9998653504411436</v>
+        <v>-1.378375986142669</v>
       </c>
       <c r="G46" t="n">
         <v>-3.738003466383644</v>
@@ -5103,16 +5063,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.272715510938238</v>
+        <v>2.529740786204325</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>14.39583333333333</v>
+        <v>22.15625</v>
       </c>
       <c r="L46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -5121,43 +5081,43 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.66666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.593498695070984</v>
+        <v>1.593498695070993</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.6202864689675869</v>
+        <v>-0.6202864689675871</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8480841303060797</v>
+        <v>0.9819601947618618</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.235245850089725</v>
+        <v>-0.2380921826368024</v>
       </c>
       <c r="U46" s="3" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.28125</v>
       </c>
       <c r="V46" s="3" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.08705357142361111</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7150959860841805</v>
+        <v>0.5828314640603287</v>
       </c>
       <c r="X46" t="n">
-        <v>-0.5554807502450798</v>
+        <v>-0.861484991339168</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.651716439558784</v>
+        <v>-2.45057004582654</v>
       </c>
       <c r="Z46" t="n">
-        <v>-5.062069203797527</v>
+        <v>-6.14018995092112</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.8918252973697607</v>
+        <v>0.8133319453319321</v>
       </c>
       <c r="AB46" t="n">
-        <v>-3.182912988432946</v>
+        <v>-4.843833448987583</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -5292,10 +5252,10 @@
         <v>1000</v>
       </c>
       <c r="E48" t="n">
-        <v>981.0724689345618</v>
+        <v>984.2064821803893</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.892753106543819</v>
+        <v>-1.579351781961066</v>
       </c>
       <c r="G48" t="n">
         <v>1.120059186668687</v>
@@ -5307,16 +5267,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.97956625398293</v>
+        <v>1.666442251985968</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>26.63541666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -5325,43 +5285,43 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>14.28571428571428</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9221810739694034</v>
+        <v>0.9221810739694112</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.4054606093493854</v>
+        <v>-0.4054606093493786</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4721086759895368</v>
+        <v>0.4721086759895464</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.2372276778119113</v>
+        <v>-0.229845606544379</v>
       </c>
       <c r="U48" s="3" t="n">
         <v>0.2395833333333333</v>
       </c>
       <c r="V48" s="3" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.09090909090277778</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3292818254719383</v>
+        <v>0.3711637106101793</v>
       </c>
       <c r="X48" t="n">
-        <v>-1.351966504674164</v>
+        <v>-1.214885986123905</v>
       </c>
       <c r="Y48" t="n">
-        <v>-6.143988399853988</v>
+        <v>-5.222712489111371</v>
       </c>
       <c r="Z48" t="n">
-        <v>-10.79553068200405</v>
+        <v>-10.89211010053617</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.6816586599951534</v>
+        <v>0.7192481383884496</v>
       </c>
       <c r="AB48" t="n">
-        <v>-8.591079913461014</v>
+        <v>-7.455358046953865</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -5496,10 +5456,10 @@
         <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>956.7725073822462</v>
+        <v>965.0297343341132</v>
       </c>
       <c r="F50" t="n">
-        <v>-4.32274926177538</v>
+        <v>-3.497026566588681</v>
       </c>
       <c r="G50" t="n">
         <v>11.63108379051223</v>
@@ -5511,16 +5471,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.459984580614765</v>
+        <v>4.302110003184777</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>16.67708333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -5529,43 +5489,43 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>20</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.15142361802456</v>
+        <v>1.692510388162564</v>
       </c>
       <c r="R50" t="n">
-        <v>-1.311470612621153</v>
+        <v>-1.311470612621144</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7433162954619305</v>
+        <v>0.9098004411856377</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.5511197108033186</v>
+        <v>-0.59377465082508</v>
       </c>
       <c r="U50" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09375</v>
       </c>
       <c r="V50" s="3" t="n">
-        <v>0.07291666666666667</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3375764169479216</v>
+        <v>0.3400601276281476</v>
       </c>
       <c r="X50" t="n">
-        <v>-2.881832841183587</v>
+        <v>-3.179115060535164</v>
       </c>
       <c r="Y50" t="n">
-        <v>-5.613291552333438</v>
+        <v>-5.387725118403296</v>
       </c>
       <c r="Z50" t="n">
-        <v>-9.562591893255471</v>
+        <v>-8.391402443135794</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.6430887019940601</v>
+        <v>0.5829281680551452</v>
       </c>
       <c r="AB50" t="n">
-        <v>-6.873367586822475</v>
+        <v>-6.158054377840047</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -5598,10 +5558,10 @@
         <v>1000</v>
       </c>
       <c r="E51" t="n">
-        <v>1010.264402048926</v>
+        <v>1009.656153377165</v>
       </c>
       <c r="F51" t="n">
-        <v>1.026440204892617</v>
+        <v>0.9656153377164628</v>
       </c>
       <c r="G51" t="n">
         <v>12.2978879257718</v>
@@ -5613,16 +5573,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.051539726854428</v>
+        <v>4.295245359131931</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>17.71875</v>
       </c>
       <c r="L51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -5631,43 +5591,43 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>33.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.651323032118565</v>
+        <v>1.651323032118561</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.798070121342921</v>
+        <v>-0.7980701213429319</v>
       </c>
       <c r="S51" t="n">
-        <v>1.157501953543178</v>
+        <v>1.257584445668236</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.4462298698166315</v>
+        <v>-0.397085996197085</v>
       </c>
       <c r="U51" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="V51" s="3" t="n">
-        <v>0.1731770833333333</v>
+        <v>0.1845238095138889</v>
       </c>
       <c r="W51" t="n">
-        <v>1.284569943265386</v>
+        <v>1.345459926727729</v>
       </c>
       <c r="X51" t="n">
-        <v>0.8553668374105139</v>
+        <v>0.9656153377164514</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.064364364476938</v>
+        <v>1.046499031917467</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.617947610661738</v>
+        <v>2.886527677961847</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.073773924615406</v>
+        <v>1.075505063593809</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.755103748415425</v>
+        <v>1.707917194352627</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -5700,10 +5660,10 @@
         <v>1000</v>
       </c>
       <c r="E52" t="n">
-        <v>971.8591796658184</v>
+        <v>979.2163354627911</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.814082033418163</v>
+        <v>-2.078366453720889</v>
       </c>
       <c r="G52" t="n">
         <v>2.152282585524312</v>
@@ -5715,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.90620122960867</v>
+        <v>2.628474693796906</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>16.17708333333333</v>
       </c>
       <c r="L52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5733,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="Q52" t="n">
         <v>1.577070762479431</v>
@@ -5742,34 +5702,34 @@
         <v>-1.053756602540318</v>
       </c>
       <c r="S52" t="n">
-        <v>1.184055613267159</v>
+        <v>1.184055613267158</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.4545905306382632</v>
+        <v>-0.4676288953233879</v>
       </c>
       <c r="U52" s="3" t="n">
         <v>0.2465277777777778</v>
       </c>
       <c r="V52" s="3" t="n">
-        <v>0.08258928570601852</v>
+        <v>0.0859375</v>
       </c>
       <c r="W52" t="n">
-        <v>0.5526786047758894</v>
+        <v>0.6265302115426978</v>
       </c>
       <c r="X52" t="n">
-        <v>-1.655342372598919</v>
+        <v>-1.385577635813926</v>
       </c>
       <c r="Y52" t="n">
-        <v>-3.597208834686894</v>
+        <v>-2.756994417660304</v>
       </c>
       <c r="Z52" t="n">
-        <v>-10.09270260415441</v>
+        <v>-8.576360514130421</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.8180941362591923</v>
+        <v>0.8516877879183891</v>
       </c>
       <c r="AB52" t="n">
-        <v>-4.979048586854289</v>
+        <v>-3.887461748158745</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -5802,10 +5762,10 @@
         <v>1000</v>
       </c>
       <c r="E53" t="n">
-        <v>1000.565429833417</v>
+        <v>994.8558725100686</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05654298334169425</v>
+        <v>-0.5144127489931406</v>
       </c>
       <c r="G53" t="n">
         <v>48.16037715220405</v>
@@ -5817,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9444468913486225</v>
+        <v>0.5144127489931406</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>5.25</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5835,43 +5795,39 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.066921437965453</v>
+        <v>-0.5144127489931406</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.5144127489931302</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.066921437965453</v>
-      </c>
+        <v>-0.5144127489931406</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>-0.3341609529581488</v>
-      </c>
-      <c r="U53" s="3" t="n">
-        <v>0.1354166666666667</v>
-      </c>
+        <v>-0.5144127489931406</v>
+      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="W53" t="n">
-        <v>1.056251940483692</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1413574583542356</v>
+        <v>-5.144127489931407</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2007708710214931</v>
+        <v>-3.210734749786095</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.7828024923451949</v>
+        <v>-12.63516682337495</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.025554285346111</v>
+        <v>0.4912961094326163</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.285412423514822</v>
+        <v>-3.730807115252728</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -6206,10 +6162,10 @@
         <v>1000</v>
       </c>
       <c r="E57" t="n">
-        <v>993.1265348260473</v>
+        <v>997.9821577533231</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6873465173952695</v>
+        <v>-0.2017842246676878</v>
       </c>
       <c r="G57" t="n">
         <v>-10.30832509645119</v>
@@ -6227,10 +6183,10 @@
         <v>20.09375</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -6239,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q57" t="n">
         <v>0.630976405845848</v>
@@ -6251,31 +6207,31 @@
         <v>0.5529266013240566</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.3577681235653051</v>
+        <v>-0.3255741389839978</v>
       </c>
       <c r="U57" s="3" t="n">
         <v>0.2447916666666667</v>
       </c>
       <c r="V57" s="3" t="n">
-        <v>0.2395833333333333</v>
+        <v>0.2838541666666667</v>
       </c>
       <c r="W57" t="n">
-        <v>0.6150692834041516</v>
+        <v>0.844790281191271</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.9819235962789565</v>
+        <v>-0.3363070411128135</v>
       </c>
       <c r="Y57" t="n">
-        <v>-1.32289389089011</v>
+        <v>-0.3699750021558141</v>
       </c>
       <c r="Z57" t="n">
-        <v>-5.578058680568438</v>
+        <v>-1.683979811244852</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.9195951612456023</v>
+        <v>0.9763104050679603</v>
       </c>
       <c r="AB57" t="n">
-        <v>-2.012909151549382</v>
+        <v>-0.5720420232980663</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -6410,10 +6366,10 @@
         <v>1000</v>
       </c>
       <c r="E59" t="n">
-        <v>1020.158387221786</v>
+        <v>1014.843366486615</v>
       </c>
       <c r="F59" t="n">
-        <v>2.01583872217858</v>
+        <v>1.484336648661463</v>
       </c>
       <c r="G59" t="n">
         <v>-22.01115592020896</v>
@@ -6425,16 +6381,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.452567538788364</v>
+        <v>1.416717156573192</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>20.15625</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6443,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="Q59" t="n">
         <v>3.025249242767964</v>
@@ -6452,34 +6408,34 @@
         <v>-0.9775058207777811</v>
       </c>
       <c r="S59" t="n">
-        <v>1.835023807062956</v>
+        <v>3.025249242767964</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.40543874700191</v>
+        <v>-0.5004868193202717</v>
       </c>
       <c r="U59" s="3" t="n">
-        <v>0.078125</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="V59" s="3" t="n">
-        <v>0.1901041666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="W59" t="n">
-        <v>2.217439471104477</v>
+        <v>1.967800385151901</v>
       </c>
       <c r="X59" t="n">
-        <v>3.359731203630966</v>
+        <v>3.710841621653657</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.675488038654482</v>
+        <v>2.077656628975527</v>
       </c>
       <c r="Z59" t="n">
-        <v>18.91361715550607</v>
+        <v>13.85356275796015</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.280950003062337</v>
+        <v>1.227816668400931</v>
       </c>
       <c r="AB59" t="n">
-        <v>4.879080459547495</v>
+        <v>3.727025002828191</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -6512,10 +6468,10 @@
         <v>1000</v>
       </c>
       <c r="E60" t="n">
-        <v>977.8069320478559</v>
+        <v>990.6954079024464</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.219306795214413</v>
+        <v>-0.930459209755361</v>
       </c>
       <c r="G60" t="n">
         <v>5.714490286242002</v>
@@ -6527,16 +6483,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.501103676902479</v>
+        <v>3.203646974691419</v>
       </c>
       <c r="K60" s="3" t="n">
         <v>23.97916666666667</v>
       </c>
       <c r="L60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -6545,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>21.42857142857143</v>
+        <v>25</v>
       </c>
       <c r="Q60" t="n">
         <v>1.864762204536855</v>
@@ -6554,34 +6510,34 @@
         <v>-0.9086192278001932</v>
       </c>
       <c r="S60" t="n">
-        <v>1.175583890638397</v>
+        <v>1.175583890638399</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.520797485770033</v>
+        <v>-0.4915393502421043</v>
       </c>
       <c r="U60" s="3" t="n">
         <v>0.09722222222222222</v>
       </c>
       <c r="V60" s="3" t="n">
-        <v>0.08143939393518519</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="W60" t="n">
-        <v>0.6079402650126119</v>
+        <v>0.7876646408508235</v>
       </c>
       <c r="X60" t="n">
-        <v>-1.585219139438867</v>
+        <v>-0.7753826747961341</v>
       </c>
       <c r="Y60" t="n">
-        <v>-3.045726571770365</v>
+        <v>-1.31322078218997</v>
       </c>
       <c r="Z60" t="n">
-        <v>-7.026536670245944</v>
+        <v>-3.463620807480097</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.7997605370815758</v>
+        <v>0.9032449552618884</v>
       </c>
       <c r="AB60" t="n">
-        <v>-4.45617066944726</v>
+        <v>-1.995725246622673</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -7022,10 +6978,10 @@
         <v>1000</v>
       </c>
       <c r="E65" t="n">
-        <v>968.5917293061951</v>
+        <v>1030.331281077137</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.140827069380486</v>
+        <v>3.03312810771373</v>
       </c>
       <c r="G65" t="n">
         <v>-30.30524091753891</v>
@@ -7037,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>10.04849872745637</v>
+        <v>3.694908666138575</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>23.39583333333333</v>
+        <v>21.34375</v>
       </c>
       <c r="L65" t="n">
         <v>11</v>
@@ -7058,40 +7014,40 @@
         <v>27.27272727272727</v>
       </c>
       <c r="Q65" t="n">
-        <v>5.104022647968928</v>
+        <v>5.10402264796893</v>
       </c>
       <c r="R65" t="n">
-        <v>-3.398825654923213</v>
+        <v>-2.024560117302053</v>
       </c>
       <c r="S65" t="n">
-        <v>2.903261115247087</v>
+        <v>3.242194383785275</v>
       </c>
       <c r="T65" t="n">
-        <v>-1.449437123199814</v>
+        <v>-0.8147607360606768</v>
       </c>
       <c r="U65" s="3" t="n">
-        <v>0.2465277777777778</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="V65" s="3" t="n">
-        <v>0.4205729166666667</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="W65" t="n">
-        <v>0.7175569466446008</v>
+        <v>1.470490274024239</v>
       </c>
       <c r="X65" t="n">
-        <v>-2.855297335800444</v>
+        <v>2.757389188830663</v>
       </c>
       <c r="Y65" t="n">
-        <v>-1.075148485723924</v>
+        <v>2.150594563326587</v>
       </c>
       <c r="Z65" t="n">
-        <v>-3.48604903669158</v>
+        <v>13.46389296711218</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.9592039189934782</v>
+        <v>1.203485772577722</v>
       </c>
       <c r="AB65" t="n">
-        <v>-1.491742063988028</v>
+        <v>3.219908550099243</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -7328,10 +7284,10 @@
         <v>1000</v>
       </c>
       <c r="E68" t="n">
-        <v>1018.474020808825</v>
+        <v>1019.091942765422</v>
       </c>
       <c r="F68" t="n">
-        <v>1.847402080882455</v>
+        <v>1.909194276542166</v>
       </c>
       <c r="G68" t="n">
         <v>40.73182555204515</v>
@@ -7343,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.789382258821929</v>
+        <v>3.731009976421595</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>14.86458333333333</v>
       </c>
       <c r="L68" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -7361,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>33.33333333333333</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="Q68" t="n">
         <v>2.057860626712089</v>
@@ -7370,34 +7326,34 @@
         <v>-0.795418135213057</v>
       </c>
       <c r="S68" t="n">
-        <v>1.213733723135671</v>
+        <v>1.213733723135669</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.4181530872271901</v>
+        <v>-0.457877367582035</v>
       </c>
       <c r="U68" s="3" t="n">
         <v>0.08749999999999999</v>
       </c>
       <c r="V68" s="3" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="W68" t="n">
-        <v>1.444559964987607</v>
+        <v>1.466038872754741</v>
       </c>
       <c r="X68" t="n">
-        <v>1.231601387254969</v>
+        <v>1.363710197530119</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.248459528763526</v>
+        <v>2.638885704792231</v>
       </c>
       <c r="Z68" t="n">
-        <v>6.580741725812717</v>
+        <v>6.931634850251049</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.232514768910163</v>
+        <v>1.273397584963447</v>
       </c>
       <c r="AB68" t="n">
-        <v>3.843328585368865</v>
+        <v>4.931886221045731</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -7634,10 +7590,10 @@
         <v>1000</v>
       </c>
       <c r="E71" t="n">
-        <v>1018.193498885678</v>
+        <v>1004.199859830208</v>
       </c>
       <c r="F71" t="n">
-        <v>1.819349888567774</v>
+        <v>0.419985983020797</v>
       </c>
       <c r="G71" t="n">
         <v>19.78571897355103</v>
@@ -7649,16 +7605,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.586126958025874</v>
+        <v>1.692653264536977</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>8.65625</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -7667,43 +7623,43 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.36451053489653</v>
+        <v>1.816601419051392</v>
       </c>
       <c r="R71" t="n">
-        <v>-1.371697165850665</v>
+        <v>-1.371697165850664</v>
       </c>
       <c r="S71" t="n">
-        <v>2.090555976973961</v>
+        <v>1.816601419051392</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.7741547968263834</v>
+        <v>-1.371697165850664</v>
       </c>
       <c r="U71" s="3" t="n">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="V71" s="3" t="n">
-        <v>0.0763888888888889</v>
+        <v>0.0625</v>
       </c>
       <c r="W71" t="n">
-        <v>1.774465161509879</v>
+        <v>1.300716984923541</v>
       </c>
       <c r="X71" t="n">
-        <v>3.638699777135549</v>
+        <v>2.099929915103985</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.262402089123597</v>
+        <v>0.8284448697864846</v>
       </c>
       <c r="Z71" t="n">
-        <v>9.480995025743251</v>
+        <v>3.089534348349936</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.328789829848465</v>
+        <v>1.148694285847269</v>
       </c>
       <c r="AB71" t="n">
-        <v>4.31765104523305</v>
+        <v>1.294106453465437</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -7838,10 +7794,10 @@
         <v>1000</v>
       </c>
       <c r="E73" t="n">
-        <v>1040.65996662092</v>
+        <v>1044.715786237593</v>
       </c>
       <c r="F73" t="n">
-        <v>4.065996662091981</v>
+        <v>4.471578623759297</v>
       </c>
       <c r="G73" t="n">
         <v>-8.040920148274322</v>
@@ -7853,16 +7809,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.120616544642592</v>
+        <v>1.589940778073225</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>12.15625</v>
+        <v>3.052083333333333</v>
       </c>
       <c r="L73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7871,43 +7827,43 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="n">
         <v>3.689749939598947</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.5297800610049704</v>
+        <v>-0.5297800610049541</v>
       </c>
       <c r="S73" t="n">
-        <v>1.757519608055474</v>
+        <v>1.757519608055478</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.4216979248507675</v>
+        <v>-0.4272771962514472</v>
       </c>
       <c r="U73" s="3" t="n">
         <v>0.046875</v>
       </c>
       <c r="V73" s="3" t="n">
-        <v>0.1235119047569444</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="W73" t="n">
-        <v>2.341504795774107</v>
+        <v>2.696356955526214</v>
       </c>
       <c r="X73" t="n">
-        <v>3.696360601901812</v>
+        <v>4.471578623759275</v>
       </c>
       <c r="Y73" t="n">
-        <v>4.094566557787361</v>
+        <v>4.544799096129786</v>
       </c>
       <c r="Z73" t="n">
-        <v>29.41339039947609</v>
+        <v>44.17833893826792</v>
       </c>
       <c r="AA73" t="n">
-        <v>1.520788173998933</v>
+        <v>1.655099416072221</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.184545671348758</v>
+        <v>10.43936438152712</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -7940,10 +7896,10 @@
         <v>1000</v>
       </c>
       <c r="E74" t="n">
-        <v>995.1115602897755</v>
+        <v>968.513020815697</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4888439710224474</v>
+        <v>-3.148697918430298</v>
       </c>
       <c r="G74" t="n">
         <v>-22.02381727077487</v>
@@ -7961,10 +7917,10 @@
         <v>23.6875</v>
       </c>
       <c r="L74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7973,43 +7929,43 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.369943571154352</v>
+        <v>2.157412695085187</v>
       </c>
       <c r="R74" t="n">
         <v>-1.674883873205414</v>
       </c>
       <c r="S74" t="n">
-        <v>1.7199584624301</v>
+        <v>1.656695050516902</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.8879123141704254</v>
+        <v>-0.9709869584768099</v>
       </c>
       <c r="U74" s="3" t="n">
-        <v>0.1215277777777778</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="V74" s="3" t="n">
-        <v>0.08072916666666667</v>
+        <v>0.08229166666666667</v>
       </c>
       <c r="W74" t="n">
-        <v>0.9526084006347958</v>
+        <v>0.6650962134503422</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.2715799839013613</v>
+        <v>-2.249069941735928</v>
       </c>
       <c r="Y74" t="n">
-        <v>-0.2582814815080683</v>
+        <v>-2.434421548447497</v>
       </c>
       <c r="Z74" t="n">
-        <v>-0.9045688040982707</v>
+        <v>-5.013103946462421</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.9836956462423998</v>
+        <v>0.8438897391792404</v>
       </c>
       <c r="AB74" t="n">
-        <v>-0.3752011893064717</v>
+        <v>-3.302324030668081</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
